--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TrueCoverage\TLD_Retreaver\TLD_Retreaver_Performer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TrueCoverage\TLD_Retreaver\Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49D0EBA-D431-4921-8C93-0D4ACB967F37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AEABF2-DC03-4DC2-85DB-D6E7C68C5E82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -165,15 +165,9 @@
     <t>Dispatcher_Excelsheetname</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>Retreaver_Email_Start_To</t>
   </si>
   <si>
-    <t>Retreaver_Start_CC</t>
-  </si>
-  <si>
     <t>Retreaver_URL</t>
   </si>
   <si>
@@ -202,13 +196,28 @@
   </si>
   <si>
     <t>Retreaver_filename</t>
+  </si>
+  <si>
+    <t>TLD_Emailstart_Subject</t>
+  </si>
+  <si>
+    <t>TLD_Emailend_Subject</t>
+  </si>
+  <si>
+    <t>Retreaver_Email_Start_CC</t>
+  </si>
+  <si>
+    <t>Retreaver_Emailend_Subject</t>
+  </si>
+  <si>
+    <t>Retreaver_Emailstart_Subject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -256,6 +265,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF464E55"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -277,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -296,6 +311,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,7 +682,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -674,7 +693,7 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>32</v>
@@ -2857,10 +2876,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2915,7 +2934,7 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
@@ -2926,148 +2945,178 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>46</v>
+      <c r="A4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>47</v>
+      <c r="A5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>48</v>
+      <c r="A6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>49</v>
+      <c r="A7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
         <v>51</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>52</v>
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
+      <c r="A12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>57</v>
+      <c r="A13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>58</v>
+      <c r="A14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -4033,7 +4082,6 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TrueCoverage\TLD_Retreaver\Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AEABF2-DC03-4DC2-85DB-D6E7C68C5E82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F1F45C-3C37-4B0D-8EA4-76A83EEBFE10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Exceptions_Screenshots</t>
-  </si>
-  <si>
-    <t>Where to save exceptions screenshots - can be a full or a relative path.</t>
   </si>
   <si>
     <t>LogMessage_GetTransactionData</t>
@@ -165,18 +162,9 @@
     <t>Dispatcher_Excelsheetname</t>
   </si>
   <si>
-    <t>Retreaver_Email_Start_To</t>
-  </si>
-  <si>
     <t>Retreaver_URL</t>
   </si>
   <si>
-    <t>TLD_Email_Start_CC</t>
-  </si>
-  <si>
-    <t>TLD_Email_Start_To</t>
-  </si>
-  <si>
     <t>TLD_URL</t>
   </si>
   <si>
@@ -198,26 +186,53 @@
     <t>Retreaver_filename</t>
   </si>
   <si>
-    <t>TLD_Emailstart_Subject</t>
-  </si>
-  <si>
-    <t>TLD_Emailend_Subject</t>
-  </si>
-  <si>
-    <t>Retreaver_Email_Start_CC</t>
-  </si>
-  <si>
-    <t>Retreaver_Emailend_Subject</t>
-  </si>
-  <si>
-    <t>Retreaver_Emailstart_Subject</t>
+    <t>TLD_filename</t>
+  </si>
+  <si>
+    <t>TLD_filepath_New</t>
+  </si>
+  <si>
+    <t>TLD_filepath_Old</t>
+  </si>
+  <si>
+    <t>[example] D:/TrueCoverage/TLD_Retreaver/ExceptionScreenshots</t>
+  </si>
+  <si>
+    <t>TLD_Retreaver_Emailstart_Subject</t>
+  </si>
+  <si>
+    <t>TLD_Retreaver_Email_Start_To</t>
+  </si>
+  <si>
+    <t>TLD_Retreaver_Emailend_Subject</t>
+  </si>
+  <si>
+    <t>TLD_Retreaver_Email_CC</t>
+  </si>
+  <si>
+    <t>TLD_Retreaver_Start_Date</t>
+  </si>
+  <si>
+    <t>TLD_Credentials</t>
+  </si>
+  <si>
+    <t>Retreaver_Credentials</t>
+  </si>
+  <si>
+    <t>TLD_Retreaver_ExceptionScreenshot</t>
+  </si>
+  <si>
+    <t>TLD_Retreaver_FailedEmail</t>
+  </si>
+  <si>
+    <t>TLD_Retraver_SuccessEmail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -271,6 +286,24 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF464E55"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF464E55"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -289,10 +322,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -312,11 +346,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -629,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -679,40 +714,54 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1701,9 +1750,6 @@
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1716,7 +1762,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1769,18 +1815,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1792,109 +1838,109 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2876,16 +2922,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="60.28515625" customWidth="1"/>
     <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
@@ -2898,7 +2944,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -2928,195 +2974,227 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>49</v>
+      <c r="A4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>48</v>
+      <c r="A5" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>58</v>
+      <c r="A6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>46</v>
+      <c r="A14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
+      <c r="A16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
+    <row r="17" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1">
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:4" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -4078,10 +4156,6 @@
     <row r="991" ht="14.25" customHeight="1"/>
     <row r="992" ht="14.25" customHeight="1"/>
     <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
